--- a/document/Register_Calculation.xlsx
+++ b/document/Register_Calculation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\todat\vscode\PlatformIO\UNOR4_Chtbi-T_EFI\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\todat\vscode\PlatformIO\MA735_Setting\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDE2D0E-E60B-498F-AF05-0EE74916C3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719C1B9F-FFCE-45E4-AFAB-1305A7D4420B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{E25CDAB2-8680-4CB9-8301-E3A4E4E0EB60}"/>
   </bookViews>
@@ -493,51 +493,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E2A734-D1FB-45A6-A474-D4A9B787403F}">
   <dimension ref="B2:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:L10"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -893,22 +893,22 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="24" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="23"/>
     </row>
     <row r="4" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="8" t="s">
@@ -960,16 +960,16 @@
         <f>DEC2BIN(B5,5)</f>
         <v>00000</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="31"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.45">
@@ -984,16 +984,16 @@
         <f t="shared" ref="D6:D15" si="1">DEC2BIN(B6,5)</f>
         <v>00001</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.45">
@@ -1008,16 +1008,16 @@
         <f t="shared" si="1"/>
         <v>00010</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.45">
@@ -1070,16 +1070,16 @@
         <f t="shared" si="1"/>
         <v>00100</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="32" t="s">
+      <c r="F9" s="28"/>
+      <c r="G9" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="34"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="31"/>
       <c r="K9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1100,16 +1100,16 @@
         <f t="shared" si="1"/>
         <v>00101</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="28"/>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.45">
@@ -1124,16 +1124,16 @@
         <f t="shared" si="1"/>
         <v>00110</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27" t="s">
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23"/>
       <c r="K11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1192,16 +1192,16 @@
         <f t="shared" si="1"/>
         <v>01110</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.45">
@@ -1216,16 +1216,16 @@
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.45">
@@ -1272,23 +1272,23 @@
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="24" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="19" t="s">
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="32" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       <c r="M19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N19" s="20"/>
+      <c r="N19" s="33"/>
     </row>
     <row r="20" spans="2:14" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B20" s="7">
@@ -1832,23 +1832,23 @@
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="24" t="s">
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="19" t="s">
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="32" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       <c r="M34" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N34" s="20"/>
+      <c r="N34" s="33"/>
     </row>
     <row r="35" spans="2:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B35" s="7">
@@ -2394,6 +2394,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="E14:L14"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="E33:M33"/>
     <mergeCell ref="B18:D18"/>
@@ -2405,13 +2412,6 @@
     <mergeCell ref="E7:L7"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:J9"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="E14:L14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
